--- a/excel/traffic_202310.xlsx
+++ b/excel/traffic_202310.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH71"/>
+  <dimension ref="A1:AI80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -448,160 +448,165 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>部門</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>10/1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>10/2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>10/3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>10/4</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>10/5</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>10/6</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>10/7</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>10/8</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>10/9</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>10/10</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>10/11</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>10/12</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>10/13</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>10/14</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>10/15</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>10/16</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>10/17</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>10/18</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>10/19</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>10/20</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>10/21</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>10/22</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>10/23</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>10/24</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>10/25</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>10/26</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>10/27</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>10/28</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>10/29</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>10/30</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>10/31</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>總計</t>
         </is>
@@ -610,17 +615,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>魏宏霖</t>
+          <t>簡含書</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Henry Wei</t>
+          <t>Vanessa Chien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -635,22 +640,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -675,17 +680,17 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -715,12 +720,12 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -776,23 +781,28 @@
       <c r="AH2" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>1800</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>李侑萱</t>
+          <t>陳智倫</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Yolanda Lee</t>
+          <t>Frank Chen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -807,22 +817,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -847,17 +857,17 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -948,23 +958,28 @@
       <c r="AH3" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>1400</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>葉雲旭</t>
+          <t>黃冠叡</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Johnny Yeh</t>
+          <t>Ray Huang</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA35C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -979,22 +994,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1019,17 +1034,17 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1044,27 +1059,27 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1120,23 +1135,28 @@
       <c r="AH4" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>潘梅寧</t>
+          <t>陳緯綺</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amy Pan</t>
+          <t>Vicky Chen</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA371</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1211,7 +1231,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1098</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1292,23 +1312,28 @@
       <c r="AH5" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>1098</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>黃式賢</t>
+          <t>劉家瑜</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Shiny Huang</t>
+          <t>Scott Liu</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA371</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1323,22 +1348,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1363,7 +1388,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1393,22 +1418,22 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1464,23 +1489,28 @@
       <c r="AH6" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>1800</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>傅子峰</t>
+          <t>林育田</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gibson Fu</t>
+          <t>Kevin Lin</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA371</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1495,22 +1525,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1535,17 +1565,17 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1555,7 +1585,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1565,22 +1595,22 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>200</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -1635,24 +1665,29 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>賴韋任</t>
+          <t>陳聿恩</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Leo Lai</t>
+          <t>Kitty Chen</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1667,22 +1702,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1707,12 +1742,12 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1737,7 +1772,7 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -1808,23 +1843,28 @@
       <c r="AH8" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>2520</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>川中郁果</t>
+          <t>吳國彰</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kawanaka Ikuka</t>
+          <t>Justin Wu</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1924,7 +1964,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -1979,49 +2019,54 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>陳聿恩</t>
+          <t>葉美妙</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kitty Chen</t>
+          <t>Karen Yeh</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2046,22 +2091,22 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -2081,22 +2126,22 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
@@ -2151,29 +2196,34 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>2520</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>吳國彰</t>
+          <t>張潔宜</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Justin Wu</t>
+          <t>Vivi Chang</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2183,12 +2233,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2198,7 +2248,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2223,17 +2273,17 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -2248,27 +2298,27 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
@@ -2323,24 +2373,29 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>3960</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>葉美妙</t>
+          <t>朱傑</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Karen Yeh</t>
+          <t>Jason Chu</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2355,22 +2410,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2390,7 +2445,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -2405,7 +2460,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -2415,7 +2470,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -2440,7 +2495,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
@@ -2495,24 +2550,29 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>4320</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>吳東穎</t>
+          <t>李子豪</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Richie Wu</t>
+          <t>Howard Lee</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2537,12 +2597,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2562,22 +2622,22 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -2667,34 +2727,39 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>1800</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>張潔宜</t>
+          <t>許少凱</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Vivi Chang</t>
+          <t>Kent Hsu</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2704,17 +2769,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2734,7 +2799,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -2749,7 +2814,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -2759,27 +2824,27 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -2839,34 +2904,39 @@
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>2160</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>朱傑</t>
+          <t>劉學仁</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Jason Chu</t>
+          <t>Jason Liu</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2881,12 +2951,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2906,7 +2976,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -2921,7 +2991,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -2931,7 +3001,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -2956,7 +3026,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
@@ -3011,34 +3081,39 @@
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>3960</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>許少凱</t>
+          <t>謝芳琴</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Kent Hsu</t>
+          <t>Chin Hsieh</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -3048,17 +3123,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -3078,7 +3153,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -3093,7 +3168,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -3108,27 +3183,27 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
@@ -3183,24 +3258,29 @@
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>2520</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>3960</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>凃美君</t>
+          <t>徐茂家</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Chun Tu</t>
+          <t>Mark Hsu</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3215,12 +3295,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>360</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3230,7 +3310,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -3255,17 +3335,17 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -3280,27 +3360,27 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
@@ -3355,34 +3435,39 @@
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>3960</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>劉學仁</t>
+          <t>魏毓瑩</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Jason Liu</t>
+          <t>Mina Wei</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -3392,12 +3477,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -3422,7 +3507,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -3437,7 +3522,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -3447,7 +3532,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -3457,22 +3542,22 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
@@ -3527,34 +3612,39 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>2520</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>謝芳琴</t>
+          <t>董宇珊</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Chin Hsieh</t>
+          <t>Joanne Tung</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -3564,12 +3654,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -3594,7 +3684,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -3609,7 +3699,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -3619,7 +3709,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -3644,7 +3734,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
@@ -3699,34 +3789,39 @@
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>3600</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>徐茂家</t>
+          <t>林子玲</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mark Hsu</t>
+          <t>Missy Lin</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -3736,7 +3831,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3746,7 +3841,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -3766,7 +3861,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -3781,7 +3876,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -3791,7 +3886,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -3816,7 +3911,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
@@ -3870,6 +3965,11 @@
         </is>
       </c>
       <c r="AH20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
         <is>
           <t>4320</t>
         </is>
@@ -3878,27 +3978,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>魏毓瑩</t>
+          <t>沈麗玉</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mina Wei</t>
+          <t>Lillian Shan</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -3908,17 +4008,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3938,7 +4038,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -3953,7 +4053,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -3963,22 +4063,22 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>350</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -3988,7 +4088,7 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
@@ -4043,34 +4143,39 @@
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>4310</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>李羚榕</t>
+          <t>吳燕華</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Alison Lee</t>
+          <t>Isabel Wu</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -4085,12 +4190,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -4110,17 +4215,17 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -4140,27 +4245,27 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
@@ -4215,24 +4320,29 @@
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>2520</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>3960</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>張榕珊</t>
+          <t>鄭捷齡</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sandy Chang</t>
+          <t>Cynthia Cheng</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4247,12 +4357,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -4262,7 +4372,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -4312,17 +4422,17 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -4332,7 +4442,7 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
@@ -4387,34 +4497,39 @@
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>2880</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>林威宇</t>
+          <t>李羚榕</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Will Lin</t>
+          <t>Alison Lee</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -4434,7 +4549,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -4454,7 +4569,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -4464,7 +4579,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -4474,32 +4589,32 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -4559,49 +4674,54 @@
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>2160</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>葉思妤</t>
+          <t>張榕珊</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ivy Yeh</t>
+          <t>Sandy Chang</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -4671,7 +4791,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -4731,34 +4851,39 @@
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>2160</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>林彥廷</t>
+          <t>林威宇</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tim Lin</t>
+          <t>Will Lin</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -4778,7 +4903,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -4798,7 +4923,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -4813,7 +4938,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -4823,7 +4948,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -4848,7 +4973,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
@@ -4903,34 +5028,39 @@
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>4320</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>陳楨紘</t>
+          <t>葉思妤</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Jane Chen</t>
+          <t>Ivy Yeh</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -4940,7 +5070,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -4950,7 +5080,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -4970,17 +5100,17 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -4995,17 +5125,17 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
@@ -5020,7 +5150,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
@@ -5075,34 +5205,39 @@
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>3600</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>1800</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>孫偉恭</t>
+          <t>林彥廷</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Peter Sun</t>
+          <t>Tim Lin</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -5112,7 +5247,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -5122,12 +5257,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -5142,7 +5277,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -5157,7 +5292,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -5167,7 +5302,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -5192,7 +5327,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
@@ -5247,24 +5382,29 @@
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>4680</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>戴新華</t>
+          <t>陳楨紘</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dixie Tai</t>
+          <t>Jane Chen</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5279,12 +5419,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -5294,7 +5434,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -5319,17 +5459,17 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -5344,17 +5484,17 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -5420,33 +5560,38 @@
       <c r="AH29" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>吳建霖</t>
+          <t>吳東穎</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ChienLin Wu</t>
+          <t>Richie Wu</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA380</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -5461,7 +5606,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -5511,7 +5656,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -5521,17 +5666,17 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -5591,39 +5736,44 @@
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>2520</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>董宇珊</t>
+          <t>王素珍</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Joanne Tung</t>
+          <t>Carol Wang</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA381</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -5658,17 +5808,17 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -5683,27 +5833,27 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
@@ -5763,34 +5913,39 @@
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>3960</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>林子玲</t>
+          <t>徐世峰</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Missy Lin</t>
+          <t>Sam Hsu</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA381</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -5810,7 +5965,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -5830,7 +5985,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -5845,7 +6000,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -5855,7 +6010,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -5880,7 +6035,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
@@ -5935,49 +6090,54 @@
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>4320</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>沈麗玉</t>
+          <t>陳寶慧</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Lillian Shan</t>
+          <t>Bao Chen</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA39</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -6002,22 +6162,22 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>988</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -6027,27 +6187,27 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
@@ -6107,49 +6267,54 @@
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>4670</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>988</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>劉嘉鈴</t>
+          <t>林雅雪</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nicole Liu</t>
+          <t>Cher Lin</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA41</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -6204,22 +6369,22 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>1275</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
@@ -6279,29 +6444,34 @@
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>3240</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>1275</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>王素珍</t>
+          <t>王貞文</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Carol Wang</t>
+          <t>Jane Wang</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4B</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -6311,12 +6481,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -6326,7 +6496,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -6351,17 +6521,17 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -6386,17 +6556,17 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
@@ -6451,39 +6621,44 @@
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>徐世峰</t>
+          <t>孫偉恭</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sam Hsu</t>
+          <t>Peter Sun</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4B</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -6498,7 +6673,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -6518,7 +6693,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -6533,7 +6708,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -6543,7 +6718,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -6568,7 +6743,7 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
@@ -6622,6 +6797,11 @@
         </is>
       </c>
       <c r="AH36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI36" t="inlineStr">
         <is>
           <t>4320</t>
         </is>
@@ -6630,17 +6810,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>李子豪</t>
+          <t>張軒瑜</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Howard Lee</t>
+          <t>Mark Chang</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -6655,7 +6835,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -6665,12 +6845,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -6690,7 +6870,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -6705,7 +6885,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -6720,27 +6900,27 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
@@ -6795,34 +6975,39 @@
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>3960</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>吳燕華</t>
+          <t>江晏如</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Isabel Wu</t>
+          <t>Jessika Jiang</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -6837,12 +7022,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -6862,7 +7047,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -6877,7 +7062,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -6887,27 +7072,27 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
@@ -6967,34 +7152,39 @@
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>1800</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>鄭捷齡</t>
+          <t>王縈嫻</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Cynthia Cheng</t>
+          <t>Ariel Wang</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -7004,17 +7194,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -7039,17 +7229,17 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
@@ -7059,7 +7249,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -7084,7 +7274,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
@@ -7139,29 +7329,34 @@
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>3240</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>3960</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>陳麗芳</t>
+          <t>黃秀菁</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Aretha Chen</t>
+          <t>EVA Huang</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -7176,17 +7371,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -7206,12 +7401,12 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -7221,7 +7416,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -7231,12 +7426,12 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
@@ -7256,7 +7451,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
@@ -7310,6 +7505,11 @@
         </is>
       </c>
       <c r="AH40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI40" t="inlineStr">
         <is>
           <t>3960</t>
         </is>
@@ -7318,22 +7518,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>李沐潔</t>
+          <t>劉嘉鈴</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Kayla Lee</t>
+          <t>Nicole Liu</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -7343,22 +7543,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -7413,22 +7613,22 @@
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
@@ -7483,34 +7683,39 @@
       </c>
       <c r="AH41" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>2880</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>吳韻秋</t>
+          <t>陳麗芳</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Yunchiu Wu</t>
+          <t>Aretha Chen</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -7525,12 +7730,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -7550,7 +7755,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -7560,12 +7765,12 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -7575,7 +7780,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -7600,7 +7805,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
@@ -7655,34 +7860,39 @@
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI42" t="inlineStr">
+        <is>
+          <t>3600</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>陳璜琪</t>
+          <t>吳韻秋</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Vincent Chen</t>
+          <t>Yunchiu Wu</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -7702,7 +7912,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -7722,7 +7932,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -7737,7 +7947,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -7752,27 +7962,27 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
@@ -7827,7 +8037,12 @@
       </c>
       <c r="AH43" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI43" t="inlineStr">
+        <is>
+          <t>4320</t>
         </is>
       </c>
     </row>
@@ -7844,17 +8059,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -7874,7 +8089,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -7894,7 +8109,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -7909,7 +8124,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
@@ -7919,7 +8134,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -7944,7 +8159,7 @@
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
@@ -7999,29 +8214,34 @@
       </c>
       <c r="AH44" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI44" t="inlineStr">
+        <is>
+          <t>4320</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>謝昔祥</t>
+          <t>王耀鋒</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Adonis Hsieh</t>
+          <t>Max Wang</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -8031,12 +8251,12 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -8046,7 +8266,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -8066,17 +8286,17 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -8096,27 +8316,27 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
@@ -8171,34 +8391,39 @@
       </c>
       <c r="AH45" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI45" t="inlineStr">
+        <is>
+          <t>3600</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>江德蓉</t>
+          <t>陳竑廷</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Leila Jiang</t>
+          <t>Jeff Chen</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -8208,7 +8433,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -8218,7 +8443,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -8238,17 +8463,17 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -8263,7 +8488,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -8288,7 +8513,7 @@
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
@@ -8343,24 +8568,29 @@
       </c>
       <c r="AH46" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI46" t="inlineStr">
+        <is>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>陳寶慧</t>
+          <t>黃榮昌</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Bao Chen</t>
+          <t>Hothwang Huang</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -8375,12 +8605,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -8390,7 +8620,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -8420,7 +8650,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>360</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -8440,27 +8670,27 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
@@ -8515,24 +8745,29 @@
       </c>
       <c r="AH47" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI47" t="inlineStr">
+        <is>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>林雅雪</t>
+          <t>楊于箴</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cher Lin</t>
+          <t>Sandy Yang</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -8686,6 +8921,11 @@
         </is>
       </c>
       <c r="AH48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI48" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8694,17 +8934,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>蕭順仁</t>
+          <t>曾珮郁</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Allen Hsiao</t>
+          <t>Eunice Tseng</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -8714,17 +8954,17 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -8734,7 +8974,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -8759,12 +8999,12 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -8784,27 +9024,27 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
@@ -8824,7 +9064,7 @@
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
@@ -8859,24 +9099,29 @@
       </c>
       <c r="AH49" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI49" t="inlineStr">
+        <is>
+          <t>3600</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>陳智倫</t>
+          <t>吳建霖</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Frank Chen</t>
+          <t>ChienLin Wu</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -8891,7 +9136,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>360</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -8906,7 +9151,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -8931,12 +9176,12 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -8956,7 +9201,7 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
@@ -8966,17 +9211,17 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X50" t="inlineStr">
@@ -9031,39 +9276,44 @@
       </c>
       <c r="AH50" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI50" t="inlineStr">
+        <is>
+          <t>2160</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>蔡明彬</t>
+          <t>李沐潔</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Jeff Tsai</t>
+          <t>Kayla Lee</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -9073,7 +9323,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -9098,17 +9348,17 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -9123,27 +9373,27 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
@@ -9203,39 +9453,44 @@
       </c>
       <c r="AH51" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI51" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>王耀鋒</t>
+          <t>劉勝雄</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Max Wang</t>
+          <t>Vincent Liu</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA6</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -9245,7 +9500,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -9270,17 +9525,17 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -9295,27 +9550,27 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
@@ -9375,34 +9630,39 @@
       </c>
       <c r="AH52" t="inlineStr">
         <is>
-          <t>3960</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI52" t="inlineStr">
+        <is>
+          <t>1300</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>胡美燕</t>
+          <t>傅子峰</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>May Hu</t>
+          <t>Gibson Fu</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA61</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -9412,7 +9672,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -9422,7 +9682,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -9442,7 +9702,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -9457,7 +9717,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -9467,7 +9727,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -9492,7 +9752,7 @@
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X53" t="inlineStr">
@@ -9546,6 +9806,11 @@
         </is>
       </c>
       <c r="AH53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI53" t="inlineStr">
         <is>
           <t>4320</t>
         </is>
@@ -9554,42 +9819,42 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>陳竑廷</t>
+          <t>鍾幸玲</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Jeff Chen</t>
+          <t>Shelly Chung</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA7</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -9639,27 +9904,27 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
@@ -9719,24 +9984,29 @@
       </c>
       <c r="AH54" t="inlineStr">
         <is>
-          <t>3600</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI54" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>李泰儀</t>
+          <t>徐國財</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Tyron Lee</t>
+          <t>Richard Hsu</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA80</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -9751,22 +10021,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -9791,17 +10061,17 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -9816,27 +10086,27 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="X55" t="inlineStr">
@@ -9851,27 +10121,27 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AD55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AE55" t="inlineStr">
@@ -9886,44 +10156,49 @@
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AH55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="AI55" t="inlineStr">
+        <is>
+          <t>1080</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>張雅惠</t>
+          <t>蕭順仁</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sofeya Chang</t>
+          <t>Allen Hsiao</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA80</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -9933,7 +10208,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -9958,17 +10233,17 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -9983,27 +10258,27 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
@@ -10013,7 +10288,7 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
@@ -10033,7 +10308,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-20</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr">
@@ -10063,39 +10338,44 @@
       </c>
       <c r="AH56" t="inlineStr">
         <is>
-          <t>3810</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI56" t="inlineStr">
+        <is>
+          <t>30</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>林華宸</t>
+          <t>黃式賢</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Wayne Lin</t>
+          <t>Shiny Huang</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA81</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -10105,7 +10385,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -10130,17 +10410,17 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -10150,32 +10430,32 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1280</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
@@ -10235,39 +10515,44 @@
       </c>
       <c r="AH57" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI57" t="inlineStr">
+        <is>
+          <t>1280</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>張軒瑜</t>
+          <t>赤木心惠</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Mark Chang</t>
+          <t>Akagi Shinei</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA82</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -10277,7 +10562,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -10302,17 +10587,17 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -10327,27 +10612,27 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
@@ -10407,54 +10692,59 @@
       </c>
       <c r="AH58" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI58" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>江晏如</t>
+          <t>吳佳玉</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Jessika Jiang</t>
+          <t>Joy Wu</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA9</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>200</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -10474,22 +10764,22 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>200</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>200</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
@@ -10504,27 +10794,27 @@
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="X59" t="inlineStr">
@@ -10579,39 +10869,44 @@
       </c>
       <c r="AH59" t="inlineStr">
         <is>
-          <t>2160</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI59" t="inlineStr">
+        <is>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>王縈嫻</t>
+          <t>徐儷珊</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ariel Wang</t>
+          <t>Lisan Hsu</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA940</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -10621,7 +10916,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -10646,17 +10941,17 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -10671,27 +10966,27 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
@@ -10751,34 +11046,39 @@
       </c>
       <c r="AH60" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI60" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>黃承緯</t>
+          <t>莊正忠</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Eric Huang</t>
+          <t>Hugo Chuang</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA95</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -10798,7 +11098,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -10818,12 +11118,12 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -10833,7 +11133,7 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
@@ -10843,7 +11143,7 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -10868,7 +11168,7 @@
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X61" t="inlineStr">
@@ -10923,24 +11223,29 @@
       </c>
       <c r="AH61" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI61" t="inlineStr">
+        <is>
+          <t>3960</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>郭家渝</t>
+          <t>李俊賢</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Zoe Kuo</t>
+          <t>Kiven Lee</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA95</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -10950,7 +11255,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -10970,7 +11275,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -10990,12 +11295,12 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -11005,7 +11310,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
@@ -11015,7 +11320,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -11040,7 +11345,7 @@
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
@@ -11095,49 +11400,54 @@
       </c>
       <c r="AH62" t="inlineStr">
         <is>
-          <t>3600</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI62" t="inlineStr">
+        <is>
+          <t>3960</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>郭亮均</t>
+          <t>凃美君</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Joy Kuo</t>
+          <t>Chun Tu</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA96</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -11162,17 +11472,17 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -11187,37 +11497,37 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
@@ -11267,49 +11577,54 @@
       </c>
       <c r="AH63" t="inlineStr">
         <is>
-          <t>5400</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI63" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>李漩靜</t>
+          <t>川中郁果</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Jamie Lee</t>
+          <t>Kawanaka Ikuka</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0B</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -11334,17 +11649,17 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -11359,27 +11674,27 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
@@ -11389,7 +11704,7 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
@@ -11439,39 +11754,44 @@
       </c>
       <c r="AH64" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI64" t="inlineStr">
+        <is>
+          <t>40</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>黃秀菁</t>
+          <t>張晉榮</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>EVA Huang</t>
+          <t>Barton Chang</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0B</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -11481,7 +11801,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -11506,17 +11826,17 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -11531,32 +11851,32 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>1220</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>500</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="X65" t="inlineStr">
@@ -11566,7 +11886,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
@@ -11611,49 +11931,54 @@
       </c>
       <c r="AH65" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI65" t="inlineStr">
+        <is>
+          <t>5070</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>李品于</t>
+          <t>徐沛</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Spring Lee</t>
+          <t>Fanny Hsu</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0B</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -11678,17 +12003,17 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -11698,32 +12023,32 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
@@ -11783,34 +12108,39 @@
       </c>
       <c r="AH66" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI66" t="inlineStr">
+        <is>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>王貞文</t>
+          <t>黃承緯</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Jane Wang</t>
+          <t>Eric Huang</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -11820,7 +12150,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -11830,7 +12160,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -11850,7 +12180,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -11865,7 +12195,7 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
@@ -11880,7 +12210,7 @@
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
@@ -11900,7 +12230,7 @@
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X67" t="inlineStr">
@@ -11955,34 +12285,39 @@
       </c>
       <c r="AH67" t="inlineStr">
         <is>
-          <t>3600</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI67" t="inlineStr">
+        <is>
+          <t>4320</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>莊正忠</t>
+          <t>郭家渝</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Hugo Chuang</t>
+          <t>Zoe Kuo</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -12002,7 +12337,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -12037,7 +12372,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
@@ -12047,7 +12382,7 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -12072,7 +12407,7 @@
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X68" t="inlineStr">
@@ -12126,6 +12461,11 @@
         </is>
       </c>
       <c r="AH68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI68" t="inlineStr">
         <is>
           <t>4320</t>
         </is>
@@ -12134,27 +12474,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>李俊賢</t>
+          <t>郭亮均</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Kiven Lee</t>
+          <t>Joy Kuo</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -12164,7 +12504,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -12174,7 +12514,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -12194,7 +12534,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -12209,7 +12549,7 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
@@ -12219,7 +12559,7 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -12244,17 +12584,17 @@
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
@@ -12299,34 +12639,39 @@
       </c>
       <c r="AH69" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI69" t="inlineStr">
+        <is>
+          <t>5040</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>黃榮昌</t>
+          <t>李漩靜</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Hothwang Huang</t>
+          <t>Jamie Lee</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -12336,7 +12681,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -12346,7 +12691,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -12376,12 +12721,12 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
@@ -12391,7 +12736,7 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -12416,7 +12761,7 @@
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X70" t="inlineStr">
@@ -12471,179 +12816,1777 @@
       </c>
       <c r="AH70" t="inlineStr">
         <is>
-          <t>3600</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI70" t="inlineStr">
+        <is>
+          <t>4320</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>李品于</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Spring Lee</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2AA8A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI71" t="inlineStr">
+        <is>
+          <t>4320</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>陳璜琪</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Vincent Chen</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2AA8C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI72" t="inlineStr">
+        <is>
+          <t>2520</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>謝昔祥</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Adonis Hsieh</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2AA8C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI73" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>江德蓉</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Leila Jiang</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2AA8C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI74" t="inlineStr">
+        <is>
+          <t>3960</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>謝勝旭</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Benjamin Hsieh</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2AA8D</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI75" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>蔡明彬</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Jeff Tsai</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2AA8S</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI76" t="inlineStr">
+        <is>
+          <t>3960</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>胡美燕</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>May Hu</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2AA8S</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI77" t="inlineStr">
+        <is>
+          <t>3960</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>張雅惠</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Sofeya Chang</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2AA8S</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI78" t="inlineStr">
+        <is>
+          <t>3510</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>林華宸</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Wayne Lin</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2AA8S</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI79" t="inlineStr">
+        <is>
+          <t>3960</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>17,677</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>16,510</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>15,665</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>7,560</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>15,810</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>16,590</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>14,570</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>15,198</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>360</t>
-        </is>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>14,330</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>13,980</t>
-        </is>
-      </c>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>14,700</t>
-        </is>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>13,980</t>
-        </is>
-      </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>15,060</t>
-        </is>
-      </c>
-      <c r="W71" t="inlineStr">
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>690</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>18,510</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>17,790</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>9,540</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>18,120</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>1,150</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>18,696</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>17,810</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>16,418</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>1,665</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>2,318</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>16,065</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>16,060</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>15,620</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>15,760</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>17,480</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
         <is>
           <t>450</t>
         </is>
       </c>
-      <c r="X71" t="inlineStr">
-        <is>
-          <t>360</t>
-        </is>
-      </c>
-      <c r="Y71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA71" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
-      </c>
-      <c r="AB71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH71" t="inlineStr">
-        <is>
-          <t>192,780</t>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>1,560</t>
+        </is>
+      </c>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="AA80" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="AC80" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="AD80" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AE80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG80" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="AH80" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="AI80" t="inlineStr">
+        <is>
+          <t>206,432</t>
         </is>
       </c>
     </row>

--- a/excel/traffic_202310.xlsx
+++ b/excel/traffic_202310.xlsx
@@ -1146,12 +1146,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>陳緯綺</t>
+          <t>林育田</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vicky Chen</t>
+          <t>Kevin Lin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1171,22 +1171,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1211,17 +1211,17 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>1098</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1241,22 +1241,22 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1316,19 +1316,19 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1098</t>
+          <t>2200</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>劉家瑜</t>
+          <t>陳緯綺</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Scott Liu</t>
+          <t>Vicky Chen</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1348,22 +1348,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1098</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1418,22 +1418,22 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1493,19 +1493,19 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>1098</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>林育田</t>
+          <t>劉家瑜</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kevin Lin</t>
+          <t>Scott Liu</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1570,49 +1570,49 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
           <t>200</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>200</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>200</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>200</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
       <c r="X7" t="inlineStr">
         <is>
           <t>0</t>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>1800</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>3960</t>
+          <t>4320</t>
         </is>
       </c>
     </row>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>3600</t>
+          <t>3960</t>
         </is>
       </c>
     </row>
@@ -4706,27 +4706,27 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -4781,17 +4781,17 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -5499,12 +5499,12 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
@@ -5773,12 +5773,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -5813,7 +5813,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -5843,22 +5843,22 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
@@ -6456,12 +6456,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>王貞文</t>
+          <t>孫偉恭</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Jane Wang</t>
+          <t>Peter Sun</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -6491,7 +6491,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -6546,12 +6546,12 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
@@ -6626,19 +6626,19 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>3240</t>
+          <t>4320</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>孫偉恭</t>
+          <t>王貞文</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Peter Sun</t>
+          <t>Jane Wang</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -6668,7 +6668,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -6723,12 +6723,12 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
@@ -6803,19 +6803,19 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>張軒瑜</t>
+          <t>劉嘉鈴</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Mark Chang</t>
+          <t>Nicole Liu</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -6845,7 +6845,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -6875,17 +6875,17 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -6980,19 +6980,19 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>3960</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>江晏如</t>
+          <t>陳麗芳</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Jessika Jiang</t>
+          <t>Aretha Chen</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7017,7 +7017,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -7057,7 +7057,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -7077,27 +7077,27 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
@@ -7157,19 +7157,19 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>3600</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>王縈嫻</t>
+          <t>張軒瑜</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ariel Wang</t>
+          <t>Mark Chang</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -7341,12 +7341,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>黃秀菁</t>
+          <t>江晏如</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>EVA Huang</t>
+          <t>Jessika Jiang</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -7371,7 +7371,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -7436,22 +7436,22 @@
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
@@ -7511,19 +7511,19 @@
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>3960</t>
+          <t>1800</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>劉嘉鈴</t>
+          <t>王縈嫻</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Nicole Liu</t>
+          <t>Ariel Wang</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -7583,17 +7583,17 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -7608,7 +7608,7 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
@@ -7688,19 +7688,19 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>3960</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>陳麗芳</t>
+          <t>黃秀菁</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Aretha Chen</t>
+          <t>EVA Huang</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -7715,7 +7715,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -7765,7 +7765,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -7785,7 +7785,7 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
@@ -7865,7 +7865,7 @@
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>3600</t>
+          <t>3960</t>
         </is>
       </c>
     </row>
@@ -8261,7 +8261,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -8301,7 +8301,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
@@ -8396,7 +8396,7 @@
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>3600</t>
+          <t>4320</t>
         </is>
       </c>
     </row>
@@ -8580,12 +8580,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>黃榮昌</t>
+          <t>吳建霖</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Hothwang Huang</t>
+          <t>ChienLin Wu</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -8645,7 +8645,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -8655,7 +8655,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
@@ -8750,19 +8750,19 @@
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>3240</t>
+          <t>3960</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>楊于箴</t>
+          <t>李沐潔</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sandy Yang</t>
+          <t>Kayla Lee</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -8782,12 +8782,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -8797,7 +8797,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -8822,17 +8822,17 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
@@ -8847,27 +8847,27 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
@@ -8934,12 +8934,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>曾珮郁</t>
+          <t>黃榮昌</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Eunice Tseng</t>
+          <t>Hothwang Huang</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -9009,7 +9009,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>660</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -9104,19 +9104,19 @@
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>3600</t>
+          <t>4260</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>吳建霖</t>
+          <t>楊于箴</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ChienLin Wu</t>
+          <t>Sandy Yang</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -9136,7 +9136,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -9151,7 +9151,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -9201,7 +9201,7 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
@@ -9211,12 +9211,12 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
@@ -9226,7 +9226,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -9281,19 +9281,19 @@
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>2160</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>李沐潔</t>
+          <t>曾珮郁</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Kayla Lee</t>
+          <t>Eunice Tseng</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -9313,12 +9313,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -9328,7 +9328,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -9353,17 +9353,17 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
@@ -9378,32 +9378,32 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
@@ -9458,7 +9458,7 @@
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3960</t>
         </is>
       </c>
     </row>
@@ -9996,12 +9996,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>徐國財</t>
+          <t>蕭順仁</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Richard Hsu</t>
+          <t>Allen Hsiao</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -10021,164 +10021,164 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>-20</t>
+        </is>
+      </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI55" t="inlineStr">
+        <is>
           <t>30</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="X55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="AA55" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="AB55" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="AC55" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="AD55" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="AE55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG55" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="AH55" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="AI55" t="inlineStr">
-        <is>
-          <t>1080</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>蕭順仁</t>
+          <t>徐國財</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Allen Hsiao</t>
+          <t>Richard Hsu</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -10198,22 +10198,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -10228,27 +10228,27 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
@@ -10263,32 +10263,32 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
@@ -10298,27 +10298,27 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AD56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AE56" t="inlineStr">
@@ -10333,17 +10333,17 @@
       </c>
       <c r="AG56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AH56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AI56" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>1200</t>
         </is>
       </c>
     </row>
@@ -13207,22 +13207,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -13252,12 +13252,12 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
@@ -13272,27 +13272,27 @@
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X73" t="inlineStr">
@@ -13352,7 +13352,7 @@
       </c>
       <c r="AI73" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>1800</t>
         </is>
       </c>
     </row>
@@ -13394,7 +13394,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -13529,7 +13529,7 @@
       </c>
       <c r="AI74" t="inlineStr">
         <is>
-          <t>3960</t>
+          <t>4320</t>
         </is>
       </c>
     </row>
@@ -14436,27 +14436,27 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>1,050</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>18,510</t>
+          <t>19,950</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>17,790</t>
+          <t>19,590</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>9,540</t>
+          <t>11,340</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>18,120</t>
+          <t>19,920</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -14471,27 +14471,27 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>1,150</t>
+          <t>1,210</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>18,696</t>
+          <t>20,136</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>17,810</t>
+          <t>18,890</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>16,418</t>
+          <t>18,878</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
@@ -14506,32 +14506,32 @@
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>16,065</t>
+          <t>17,145</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>16,060</t>
+          <t>17,860</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>15,620</t>
+          <t>17,420</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>15,760</t>
+          <t>17,560</t>
         </is>
       </c>
       <c r="W80" t="inlineStr">
         <is>
-          <t>17,480</t>
+          <t>19,280</t>
         </is>
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>1,170</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
@@ -14586,7 +14586,7 @@
       </c>
       <c r="AI80" t="inlineStr">
         <is>
-          <t>206,432</t>
+          <t>213,332</t>
         </is>
       </c>
     </row>

--- a/excel/traffic_202310.xlsx
+++ b/excel/traffic_202310.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1600</t>
         </is>
       </c>
     </row>
@@ -989,7 +989,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2600</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2400</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>985</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1098</t>
+          <t>2083</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>2520</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>427</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>427</t>
         </is>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>2520</t>
+          <t>2880</t>
         </is>
       </c>
     </row>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2378,7 +2378,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>3960</t>
+          <t>4320</t>
         </is>
       </c>
     </row>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>4680</t>
         </is>
       </c>
     </row>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>2160</t>
         </is>
       </c>
     </row>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>2160</t>
+          <t>2520</t>
         </is>
       </c>
     </row>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>3960</t>
+          <t>4320</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>3960</t>
+          <t>4320</t>
         </is>
       </c>
     </row>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>4680</t>
         </is>
       </c>
     </row>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>2520</t>
+          <t>2880</t>
         </is>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>3960</t>
+          <t>4320</t>
         </is>
       </c>
     </row>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>4680</t>
         </is>
       </c>
     </row>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>4310</t>
+          <t>4670</t>
         </is>
       </c>
     </row>
@@ -4175,7 +4175,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -4325,7 +4325,7 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>3960</t>
+          <t>4320</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -4502,7 +4502,7 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>2160</t>
+          <t>2520</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
@@ -4883,7 +4883,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -5033,7 +5033,7 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>4680</t>
         </is>
       </c>
     </row>
@@ -5060,7 +5060,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>2160</t>
         </is>
       </c>
     </row>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>5040</t>
         </is>
       </c>
     </row>
@@ -5414,7 +5414,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -5564,7 +5564,7 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>3240</t>
+          <t>4320</t>
         </is>
       </c>
     </row>
@@ -5636,7 +5636,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -5741,7 +5741,7 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1500</t>
         </is>
       </c>
     </row>
@@ -5768,7 +5768,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
@@ -5945,7 +5945,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -6095,7 +6095,7 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>4680</t>
         </is>
       </c>
     </row>
@@ -6132,7 +6132,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1569</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>2557</t>
         </is>
       </c>
     </row>
@@ -6304,7 +6304,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1375</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -6449,7 +6449,7 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>1275</t>
+          <t>2650</t>
         </is>
       </c>
     </row>
@@ -6476,7 +6476,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>4680</t>
         </is>
       </c>
     </row>
@@ -6653,7 +6653,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -6803,7 +6803,7 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>3240</t>
+          <t>3600</t>
         </is>
       </c>
     </row>
@@ -6830,7 +6830,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -6980,7 +6980,7 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>3240</t>
+          <t>3600</t>
         </is>
       </c>
     </row>
@@ -7007,7 +7007,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>3600</t>
+          <t>3960</t>
         </is>
       </c>
     </row>
@@ -7184,7 +7184,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -7334,7 +7334,7 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>3960</t>
+          <t>4320</t>
         </is>
       </c>
     </row>
@@ -7361,7 +7361,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -7511,7 +7511,7 @@
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>2160</t>
         </is>
       </c>
     </row>
@@ -7538,7 +7538,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -7688,7 +7688,7 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>3960</t>
+          <t>4320</t>
         </is>
       </c>
     </row>
@@ -7785,7 +7785,7 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
@@ -7865,7 +7865,7 @@
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>3960</t>
+          <t>4320</t>
         </is>
       </c>
     </row>
@@ -7892,7 +7892,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -8042,7 +8042,7 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>4680</t>
         </is>
       </c>
     </row>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -8219,7 +8219,7 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>4680</t>
         </is>
       </c>
     </row>
@@ -8246,7 +8246,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -8396,7 +8396,7 @@
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>4680</t>
         </is>
       </c>
     </row>
@@ -8423,7 +8423,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -8573,7 +8573,7 @@
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>3240</t>
+          <t>3600</t>
         </is>
       </c>
     </row>
@@ -8600,7 +8600,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -8750,7 +8750,7 @@
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>3960</t>
+          <t>4320</t>
         </is>
       </c>
     </row>
@@ -8777,7 +8777,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -8927,7 +8927,7 @@
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4320</t>
         </is>
       </c>
     </row>
@@ -8954,7 +8954,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -9104,7 +9104,7 @@
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>4260</t>
+          <t>4620</t>
         </is>
       </c>
     </row>
@@ -9216,7 +9216,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
@@ -9281,7 +9281,7 @@
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1080</t>
         </is>
       </c>
     </row>
@@ -9308,7 +9308,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -9458,7 +9458,7 @@
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>3960</t>
+          <t>4680</t>
         </is>
       </c>
     </row>
@@ -9500,7 +9500,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -9635,7 +9635,7 @@
       </c>
       <c r="AI52" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>2600</t>
         </is>
       </c>
     </row>
@@ -9662,7 +9662,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -9812,7 +9812,7 @@
       </c>
       <c r="AI53" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>4680</t>
         </is>
       </c>
     </row>
@@ -9964,7 +9964,7 @@
       </c>
       <c r="AD54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-162</t>
         </is>
       </c>
       <c r="AE54" t="inlineStr">
@@ -9989,7 +9989,7 @@
       </c>
       <c r="AI54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-162</t>
         </is>
       </c>
     </row>
@@ -10021,7 +10021,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-20</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -10166,7 +10166,7 @@
       </c>
       <c r="AI55" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -10193,7 +10193,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -10343,7 +10343,7 @@
       </c>
       <c r="AI56" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>1260</t>
         </is>
       </c>
     </row>
@@ -10365,7 +10365,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1372</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -10520,7 +10520,7 @@
       </c>
       <c r="AI57" t="inlineStr">
         <is>
-          <t>1280</t>
+          <t>2652</t>
         </is>
       </c>
     </row>
@@ -10552,7 +10552,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>440</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -10697,7 +10697,7 @@
       </c>
       <c r="AI58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>440</t>
         </is>
       </c>
     </row>
@@ -10724,7 +10724,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -10874,7 +10874,7 @@
       </c>
       <c r="AI59" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2600</t>
         </is>
       </c>
     </row>
@@ -10961,7 +10961,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1321</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="AI60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1321</t>
         </is>
       </c>
     </row>
@@ -11078,7 +11078,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -11228,7 +11228,7 @@
       </c>
       <c r="AI61" t="inlineStr">
         <is>
-          <t>3960</t>
+          <t>4320</t>
         </is>
       </c>
     </row>
@@ -11255,7 +11255,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -11405,7 +11405,7 @@
       </c>
       <c r="AI62" t="inlineStr">
         <is>
-          <t>3960</t>
+          <t>4320</t>
         </is>
       </c>
     </row>
@@ -11442,7 +11442,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -11582,7 +11582,7 @@
       </c>
       <c r="AI63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -11699,7 +11699,7 @@
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>32</t>
         </is>
       </c>
       <c r="X64" t="inlineStr">
@@ -11759,7 +11759,7 @@
       </c>
       <c r="AI64" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1365</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -11936,7 +11936,7 @@
       </c>
       <c r="AI65" t="inlineStr">
         <is>
-          <t>5070</t>
+          <t>6435</t>
         </is>
       </c>
     </row>
@@ -12140,7 +12140,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -12290,7 +12290,7 @@
       </c>
       <c r="AI67" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>4680</t>
         </is>
       </c>
     </row>
@@ -12317,7 +12317,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -12467,7 +12467,7 @@
       </c>
       <c r="AI68" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>4680</t>
         </is>
       </c>
     </row>
@@ -12494,7 +12494,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -12644,7 +12644,7 @@
       </c>
       <c r="AI69" t="inlineStr">
         <is>
-          <t>5040</t>
+          <t>5400</t>
         </is>
       </c>
     </row>
@@ -12671,7 +12671,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="AI70" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>4680</t>
         </is>
       </c>
     </row>
@@ -12848,7 +12848,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -12998,7 +12998,7 @@
       </c>
       <c r="AI71" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>4680</t>
         </is>
       </c>
     </row>
@@ -13025,7 +13025,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -13175,7 +13175,7 @@
       </c>
       <c r="AI72" t="inlineStr">
         <is>
-          <t>2520</t>
+          <t>2880</t>
         </is>
       </c>
     </row>
@@ -13202,7 +13202,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -13352,7 +13352,7 @@
       </c>
       <c r="AI73" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>4680</t>
         </is>
       </c>
     </row>
@@ -13379,7 +13379,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -13529,7 +13529,7 @@
       </c>
       <c r="AI74" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>4680</t>
         </is>
       </c>
     </row>
@@ -13566,7 +13566,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2167</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -13706,7 +13706,7 @@
       </c>
       <c r="AI75" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>4153</t>
         </is>
       </c>
     </row>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -13883,7 +13883,7 @@
       </c>
       <c r="AI76" t="inlineStr">
         <is>
-          <t>3960</t>
+          <t>4320</t>
         </is>
       </c>
     </row>
@@ -13910,7 +13910,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -14060,7 +14060,7 @@
       </c>
       <c r="AI77" t="inlineStr">
         <is>
-          <t>3960</t>
+          <t>4320</t>
         </is>
       </c>
     </row>
@@ -14167,7 +14167,7 @@
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
@@ -14237,7 +14237,7 @@
       </c>
       <c r="AI78" t="inlineStr">
         <is>
-          <t>3510</t>
+          <t>3810</t>
         </is>
       </c>
     </row>
@@ -14264,7 +14264,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -14414,7 +14414,7 @@
       </c>
       <c r="AI79" t="inlineStr">
         <is>
-          <t>3960</t>
+          <t>4320</t>
         </is>
       </c>
     </row>
@@ -14431,27 +14431,27 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,357</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1,050</t>
+          <t>20,377</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>19,950</t>
+          <t>21,745</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>19,590</t>
+          <t>25,066</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>11,340</t>
+          <t>12,640</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -14481,7 +14481,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>20,136</t>
+          <t>21,996</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -14496,7 +14496,7 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>1,665</t>
+          <t>2,986</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -14506,7 +14506,7 @@
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>17,145</t>
+          <t>17,505</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
@@ -14516,17 +14516,17 @@
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>17,420</t>
+          <t>17,720</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>17,560</t>
+          <t>17,920</t>
         </is>
       </c>
       <c r="W80" t="inlineStr">
         <is>
-          <t>19,280</t>
+          <t>19,672</t>
         </is>
       </c>
       <c r="X80" t="inlineStr">
@@ -14561,7 +14561,7 @@
       </c>
       <c r="AD80" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>-132</t>
         </is>
       </c>
       <c r="AE80" t="inlineStr">
@@ -14586,7 +14586,7 @@
       </c>
       <c r="AI80" t="inlineStr">
         <is>
-          <t>213,332</t>
+          <t>262,418</t>
         </is>
       </c>
     </row>
